--- a/testdata/TokenManager.xlsx
+++ b/testdata/TokenManager.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="15600" windowHeight="7575"/>
+    <workbookView xWindow="240" yWindow="630" windowWidth="15600" windowHeight="7515"/>
   </bookViews>
   <sheets>
-    <sheet name="TokenManager_RequestToken" sheetId="9" r:id="rId1"/>
-    <sheet name="TokenManager_UpdateToken" sheetId="10" r:id="rId2"/>
+    <sheet name="Tokens" sheetId="11" r:id="rId1"/>
+    <sheet name="TokenManager_RequestToken" sheetId="9" r:id="rId2"/>
+    <sheet name="TokenManager_UpdateToken" sheetId="10" r:id="rId3"/>
+    <sheet name="TokenManager_UpdateDeTokenize" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>Row Number</t>
   </si>
@@ -234,13 +236,47 @@
   </si>
   <si>
     <t>xpath:://div[@id='header-mid']/ul/li[*]/a[text()='9674134323']</t>
+  </si>
+  <si>
+    <t>Card No</t>
+  </si>
+  <si>
+    <t>Token No</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>txtTokenNumber</t>
+  </si>
+  <si>
+    <t>id::update_token_number</t>
+  </si>
+  <si>
+    <t>id::cardt_update_card_number</t>
+  </si>
+  <si>
+    <t>valueattribute::4111111111111111</t>
+  </si>
+  <si>
+    <t>5338781274405662</t>
+  </si>
+  <si>
+    <t>5516458273300859</t>
+  </si>
+  <si>
+    <t>4315543494007383</t>
+  </si>
+  <si>
+    <t>valueattribute::4444333322221111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +284,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,36 +699,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="85.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="87.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="87.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="28.28515625" customWidth="1"/>
-    <col min="23" max="23" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W38"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="57.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="85.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="87.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="87.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="99.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -1317,7 +1414,7 @@
       </c>
       <c r="T21" s="3" t="str">
         <f ca="1">CONCATENATE("valueattribute::",TEXT(NOW(),"mmyy"))</f>
-        <v>valueattribute::0518</v>
+        <v>valueattribute::0618</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -1684,27 +1781,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="8" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="85.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="89.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="94.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="85.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="104.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2021,7 +2118,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="str">
         <f ca="1">CONCATENATE("valueattribute::",TEXT(NOW(),"mmyy"))</f>
-        <v>valueattribute::0518</v>
+        <v>valueattribute::0618</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2280,4 +2377,754 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="57.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="94.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="85.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="104.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="89.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="99.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="str">
+        <f ca="1">CONCATENATE("valueattribute::",TEXT(NOW(),"mmyy"))</f>
+        <v>valueattribute::0618</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="8"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="P30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="R35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>